--- a/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70C98BD-73C7-42AB-AA86-02755DDF4405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A7DF07D-89FA-4E90-A385-D37E49E92BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DC1B775-9432-4815-B20E-D00B14460C6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89F24AD9-DE08-4DCB-9C31-FA6B18EFEC58}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="554">
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,49 +89,49 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,1447 +152,1423 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>16,22%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
   </si>
   <si>
     <t>88,58%</t>
   </si>
   <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>11,98%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -1604,43 +1580,34 @@
     <t>9,34%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>89,72%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2145,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5DC42A-A934-46E1-82B3-7BC63554C20B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD5A1C6-A281-46B8-972F-A06C0A8C428B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3762,13 +3729,13 @@
         <v>49591</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H33" s="7">
         <v>47</v>
@@ -3777,13 +3744,13 @@
         <v>51633</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="M33" s="7">
         <v>98</v>
@@ -3792,13 +3759,13 @@
         <v>101224</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3780,13 @@
         <v>694204</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -3828,13 +3795,13 @@
         <v>731878</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>52</v>
+        <v>177</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>1383</v>
@@ -3843,13 +3810,13 @@
         <v>1426082</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,7 +3890,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3938,7 +3905,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3953,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3935,13 @@
         <v>185467</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>224</v>
@@ -3983,13 +3950,13 @@
         <v>229249</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M37" s="7">
         <v>416</v>
@@ -3998,13 +3965,13 @@
         <v>414716</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +3986,13 @@
         <v>3091077</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H38" s="7">
         <v>3073</v>
@@ -4034,28 +4001,28 @@
         <v>3149949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M38" s="7">
         <v>6095</v>
       </c>
       <c r="N38" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,7 +4064,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -4111,7 +4078,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4135,7 +4102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475B7C7F-8723-448D-A448-25D441A129C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C193EC3E-442A-4A66-954D-D0BC6512B8E8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4152,7 +4119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4257,39 +4224,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,39 +4269,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,39 +4314,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,39 +4359,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,7 +4414,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4462,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4471,13 +4438,13 @@
         <v>1002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4459,13 @@
         <v>37853</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4507,13 +4474,13 @@
         <v>64091</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -4522,13 +4489,13 @@
         <v>101944</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4510,13 @@
         <v>466672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="H10" s="7">
         <v>421</v>
@@ -4558,13 +4525,13 @@
         <v>459674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M10" s="7">
         <v>858</v>
@@ -4573,13 +4540,13 @@
         <v>926346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4614,13 @@
         <v>2106</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4662,13 +4629,13 @@
         <v>989</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4683,7 +4650,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4665,13 @@
         <v>34480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4713,13 +4680,13 @@
         <v>39320</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4728,13 +4695,13 @@
         <v>73800</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4716,13 @@
         <v>287459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
@@ -4764,13 +4731,13 @@
         <v>300711</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -4779,13 +4746,13 @@
         <v>588170</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4820,13 @@
         <v>1952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4871,10 +4838,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4886,10 +4853,10 @@
         <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4871,13 @@
         <v>47394</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -4919,13 +4886,13 @@
         <v>61641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -4934,13 +4901,13 @@
         <v>109035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4922,13 @@
         <v>619374</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>564</v>
@@ -4970,13 +4937,13 @@
         <v>609760</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>1144</v>
@@ -4985,13 +4952,13 @@
         <v>1229133</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5026,13 @@
         <v>984</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5080,7 +5047,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5089,13 +5056,13 @@
         <v>984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5077,13 @@
         <v>23489</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -5125,13 +5092,13 @@
         <v>31742</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -5140,13 +5107,13 @@
         <v>55231</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5128,13 @@
         <v>188144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -5176,13 +5143,13 @@
         <v>187849</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>357</v>
@@ -5191,13 +5158,13 @@
         <v>375994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5232,13 @@
         <v>1075</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5295,13 +5262,13 @@
         <v>1075</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5283,13 @@
         <v>22526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5331,13 +5298,13 @@
         <v>31547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5346,13 +5313,13 @@
         <v>54073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5334,13 @@
         <v>250379</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>239</v>
@@ -5382,13 +5349,13 @@
         <v>248484</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>477</v>
@@ -5397,13 +5364,13 @@
         <v>498864</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5438,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5486,13 +5453,13 @@
         <v>1931</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5501,13 +5468,13 @@
         <v>2888</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5489,13 @@
         <v>57505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
@@ -5537,13 +5504,13 @@
         <v>73561</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>122</v>
@@ -5552,13 +5519,13 @@
         <v>131066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5540,13 @@
         <v>604326</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H30" s="7">
         <v>566</v>
@@ -5588,13 +5555,13 @@
         <v>618361</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="M30" s="7">
         <v>1129</v>
@@ -5603,13 +5570,13 @@
         <v>1222687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>329</v>
+        <v>56</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5698,7 +5665,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5707,13 +5674,13 @@
         <v>1030</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,10 +5698,10 @@
         <v>151</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H33" s="7">
         <v>57</v>
@@ -5743,13 +5710,13 @@
         <v>61488</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M33" s="7">
         <v>106</v>
@@ -5758,13 +5725,13 @@
         <v>116317</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5746,13 @@
         <v>723239</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H34" s="7">
         <v>700</v>
@@ -5794,13 +5761,13 @@
         <v>762365</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M34" s="7">
         <v>1367</v>
@@ -5809,13 +5776,13 @@
         <v>1485604</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5850,13 @@
         <v>9107</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -5898,13 +5865,13 @@
         <v>7715</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -5913,13 +5880,13 @@
         <v>16822</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5901,13 @@
         <v>278078</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>249</v>
+        <v>355</v>
       </c>
       <c r="H37" s="7">
         <v>338</v>
@@ -5949,13 +5916,13 @@
         <v>363390</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M37" s="7">
         <v>594</v>
@@ -5964,13 +5931,13 @@
         <v>641467</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>358</v>
+        <v>233</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>359</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +5958,7 @@
         <v>361</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>362</v>
+        <v>46</v>
       </c>
       <c r="H38" s="7">
         <v>2952</v>
@@ -6000,13 +5967,13 @@
         <v>3187204</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M38" s="7">
         <v>5897</v>
@@ -6015,13 +5982,13 @@
         <v>6326798</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,7 +6044,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -6101,7 +6068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BC9A61-C4ED-4D5B-9645-0563A5C88FB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C445C4B3-2AFE-41E0-B556-E58B0CB94AC3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6118,7 +6085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6246,7 +6213,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6261,7 +6228,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6243,13 @@
         <v>22053</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -6291,13 +6258,13 @@
         <v>22270</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -6306,13 +6273,13 @@
         <v>44324</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6294,13 @@
         <v>271708</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>383</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>256</v>
@@ -6342,13 +6309,13 @@
         <v>266433</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>501</v>
@@ -6357,13 +6324,13 @@
         <v>538140</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,7 +6404,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6446,13 +6413,13 @@
         <v>996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6461,13 +6428,13 @@
         <v>996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6449,13 @@
         <v>42541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>392</v>
+        <v>233</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H9" s="7">
         <v>51</v>
@@ -6497,13 +6464,13 @@
         <v>58821</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>395</v>
+        <v>316</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>396</v>
+        <v>231</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -6512,13 +6479,13 @@
         <v>101362</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6500,13 @@
         <v>460034</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>432</v>
@@ -6548,13 +6515,13 @@
         <v>463267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
@@ -6563,13 +6530,13 @@
         <v>923301</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6604,13 @@
         <v>736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6658,7 +6625,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -6667,13 +6634,13 @@
         <v>736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>203</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6655,13 @@
         <v>18323</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -6703,13 +6670,13 @@
         <v>37255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -6718,13 +6685,13 @@
         <v>55578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6706,13 @@
         <v>299506</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -6754,13 +6721,13 @@
         <v>299054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M14" s="7">
         <v>613</v>
@@ -6769,13 +6736,13 @@
         <v>598560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,13 +6810,13 @@
         <v>1804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6864,7 +6831,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6876,10 +6843,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6861,13 @@
         <v>46521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -6909,13 +6876,13 @@
         <v>35447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -6924,13 +6891,13 @@
         <v>81969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>439</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6912,13 @@
         <v>321639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="H18" s="7">
         <v>325</v>
@@ -6960,13 +6927,13 @@
         <v>350819</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M18" s="7">
         <v>629</v>
@@ -6975,13 +6942,13 @@
         <v>672458</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7016,13 @@
         <v>891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7070,7 +7037,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7079,13 +7046,13 @@
         <v>891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7067,13 @@
         <v>14116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>453</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>206</v>
+        <v>446</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -7115,13 +7082,13 @@
         <v>20580</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>455</v>
+        <v>188</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -7130,13 +7097,13 @@
         <v>34697</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,13 +7118,13 @@
         <v>196213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -7166,13 +7133,13 @@
         <v>198007</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>463</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>399</v>
@@ -7181,13 +7148,13 @@
         <v>394220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,7 +7228,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7276,7 +7243,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7306,13 +7273,13 @@
         <v>18996</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -7321,13 +7288,13 @@
         <v>20666</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -7336,13 +7303,13 @@
         <v>39662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>475</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,13 +7324,13 @@
         <v>244127</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -7372,13 +7339,13 @@
         <v>252449</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>277</v>
+        <v>473</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="M26" s="7">
         <v>483</v>
@@ -7387,13 +7354,13 @@
         <v>496576</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>483</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>484</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,7 +7434,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7512,13 +7479,13 @@
         <v>78948</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -7527,13 +7494,13 @@
         <v>76758</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -7542,13 +7509,13 @@
         <v>155706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,13 +7530,13 @@
         <v>577610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="H30" s="7">
         <v>582</v>
@@ -7578,13 +7545,13 @@
         <v>614536</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M30" s="7">
         <v>1090</v>
@@ -7593,13 +7560,13 @@
         <v>1192146</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,13 +7634,13 @@
         <v>1822</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -7688,7 +7655,7 @@
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>502</v>
+        <v>269</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -7697,13 +7664,13 @@
         <v>3929</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>56</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7718,13 +7685,13 @@
         <v>75446</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>503</v>
+        <v>258</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="H33" s="7">
         <v>74</v>
@@ -7733,13 +7700,13 @@
         <v>88292</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>311</v>
+        <v>498</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="M33" s="7">
         <v>151</v>
@@ -7748,13 +7715,13 @@
         <v>163738</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>508</v>
+        <v>316</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7736,13 @@
         <v>701315</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>504</v>
       </c>
       <c r="H34" s="7">
         <v>679</v>
@@ -7784,13 +7751,13 @@
         <v>735768</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="M34" s="7">
         <v>1350</v>
@@ -7799,13 +7766,13 @@
         <v>1437083</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7873,10 +7840,10 @@
         <v>5253</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>142</v>
@@ -7888,13 +7855,13 @@
         <v>4120</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -7903,13 +7870,13 @@
         <v>9372</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7891,13 @@
         <v>316945</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>521</v>
+        <v>320</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>522</v>
+        <v>276</v>
       </c>
       <c r="H37" s="7">
         <v>312</v>
@@ -7939,13 +7906,13 @@
         <v>360090</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>332</v>
+        <v>514</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>524</v>
+        <v>358</v>
       </c>
       <c r="M37" s="7">
         <v>629</v>
@@ -7954,13 +7921,13 @@
         <v>677035</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7942,13 @@
         <v>3072152</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>527</v>
+        <v>361</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>261</v>
+        <v>330</v>
       </c>
       <c r="H38" s="7">
         <v>3022</v>
@@ -7990,13 +7957,13 @@
         <v>3180332</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="M38" s="7">
         <v>5930</v>
@@ -8005,13 +7972,13 @@
         <v>6252485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>531</v>
+        <v>71</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,7 +8034,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -8091,7 +8058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96C9ECA-26FC-4065-AD82-BDC4F4B9B3F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12914F04-03B5-41DE-96FC-5AEB01FE7704}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8108,7 +8075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8221,7 +8188,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8251,7 +8218,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8272,7 +8239,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8302,7 +8269,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,10 +8284,10 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -8332,10 +8299,10 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -8347,10 +8314,10 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -8442,7 +8409,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8457,7 +8424,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8493,7 +8460,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8508,7 +8475,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,10 +8490,10 @@
         <v>519297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -8538,10 +8505,10 @@
         <v>554566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
@@ -8553,10 +8520,10 @@
         <v>1073864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -8663,7 +8630,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8714,7 +8681,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8729,10 +8696,10 @@
         <v>322240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
@@ -8744,10 +8711,10 @@
         <v>373284</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
@@ -8759,10 +8726,10 @@
         <v>695524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -8839,7 +8806,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8869,7 +8836,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8890,7 +8857,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8920,7 +8887,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8935,10 +8902,10 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
@@ -8950,10 +8917,10 @@
         <v>428556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
@@ -8965,10 +8932,10 @@
         <v>750796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -9045,7 +9012,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9060,7 +9027,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9075,7 +9042,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9096,7 +9063,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -9111,7 +9078,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9126,7 +9093,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9141,10 +9108,10 @@
         <v>196748</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
@@ -9156,10 +9123,10 @@
         <v>259513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
@@ -9171,10 +9138,10 @@
         <v>456260</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -9251,7 +9218,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9266,7 +9233,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9281,7 +9248,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9302,7 +9269,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9317,7 +9284,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9332,7 +9299,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9347,10 +9314,10 @@
         <v>277223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
@@ -9362,10 +9329,10 @@
         <v>275622</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
@@ -9377,10 +9344,10 @@
         <v>552845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>31</v>
@@ -9487,7 +9454,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9538,7 +9505,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9553,10 +9520,10 @@
         <v>627754</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>31</v>
@@ -9568,10 +9535,10 @@
         <v>804203</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
@@ -9583,10 +9550,10 @@
         <v>1431957</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>31</v>
@@ -9663,7 +9630,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9678,7 +9645,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9693,7 +9660,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9714,7 +9681,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9729,7 +9696,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9744,7 +9711,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9759,10 +9726,10 @@
         <v>859428</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>31</v>
@@ -9774,10 +9741,10 @@
         <v>868434</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>31</v>
@@ -9789,10 +9756,10 @@
         <v>1727862</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>31</v>
@@ -9869,7 +9836,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9884,7 +9851,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9899,7 +9866,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9920,7 +9887,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9935,7 +9902,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9950,7 +9917,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9965,10 +9932,10 @@
         <v>3385228</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>31</v>
@@ -9980,10 +9947,10 @@
         <v>3835581</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>31</v>
@@ -9992,13 +9959,13 @@
         <v>8743</v>
       </c>
       <c r="N38" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>31</v>
@@ -10043,7 +10010,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -10057,7 +10024,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A7DF07D-89FA-4E90-A385-D37E49E92BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E168EB5A-B674-4191-8D6A-0A0A85ECF27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{89F24AD9-DE08-4DCB-9C31-FA6B18EFEC58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BF3ADDA-4EBC-4755-AC9C-725B18CFFD88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="545">
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,1525 +89,1498 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>90,11%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
@@ -2112,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD5A1C6-A281-46B8-972F-A06C0A8C428B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C43651-644C-41FF-A77E-216133748AF9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3541,10 +3514,10 @@
         <v>148</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -3553,13 +3526,13 @@
         <v>88283</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3547,13 @@
         <v>575422</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H30" s="7">
         <v>571</v>
@@ -3589,13 +3562,13 @@
         <v>589541</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="M30" s="7">
         <v>1128</v>
@@ -3604,13 +3577,13 @@
         <v>1164963</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,7 +3639,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -3714,7 +3687,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3702,13 @@
         <v>49591</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H33" s="7">
         <v>47</v>
@@ -3744,13 +3717,13 @@
         <v>51633</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="M33" s="7">
         <v>98</v>
@@ -3759,13 +3732,13 @@
         <v>101224</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3753,13 @@
         <v>694204</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H34" s="7">
         <v>698</v>
@@ -3795,13 +3768,13 @@
         <v>731878</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M34" s="7">
         <v>1383</v>
@@ -3810,13 +3783,13 @@
         <v>1426082</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3863,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3905,7 +3878,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3920,7 +3893,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3908,13 @@
         <v>185467</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H37" s="7">
         <v>224</v>
@@ -3950,13 +3923,13 @@
         <v>229249</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="M37" s="7">
         <v>416</v>
@@ -3965,13 +3938,13 @@
         <v>414716</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,16 +3956,16 @@
         <v>3022</v>
       </c>
       <c r="D38" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H38" s="7">
         <v>3073</v>
@@ -4001,13 +3974,13 @@
         <v>3149949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M38" s="7">
         <v>6095</v>
@@ -4016,13 +3989,13 @@
         <v>6241025</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4007,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>31</v>
@@ -4078,7 +4051,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4102,7 +4075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C193EC3E-442A-4A66-954D-D0BC6512B8E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49786DC-41A2-4AB9-B67C-B1240588E37A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4119,7 +4092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4224,39 +4197,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,39 +4242,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,39 +4287,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,39 +4332,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4387,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4429,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4438,13 +4411,13 @@
         <v>1002</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4432,13 @@
         <v>37853</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4474,13 +4447,13 @@
         <v>64091</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -4489,13 +4462,13 @@
         <v>101944</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4483,13 @@
         <v>466672</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>421</v>
@@ -4525,13 +4498,13 @@
         <v>459674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>858</v>
@@ -4540,13 +4513,13 @@
         <v>926346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4587,13 @@
         <v>2106</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4629,13 +4602,13 @@
         <v>989</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4650,7 +4623,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4638,13 @@
         <v>34480</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4680,13 +4653,13 @@
         <v>39320</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4695,13 +4668,13 @@
         <v>73800</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4689,13 @@
         <v>287459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>280</v>
@@ -4731,13 +4704,13 @@
         <v>300711</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>565</v>
@@ -4746,13 +4719,13 @@
         <v>588170</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4793,13 @@
         <v>1952</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4838,10 +4811,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -4853,10 +4826,10 @@
         <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4844,13 @@
         <v>47394</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -4886,13 +4859,13 @@
         <v>61641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -4901,13 +4874,13 @@
         <v>109035</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4895,13 @@
         <v>619374</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H18" s="7">
         <v>564</v>
@@ -4937,13 +4910,13 @@
         <v>609760</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>1144</v>
@@ -4952,13 +4925,13 @@
         <v>1229133</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +4999,13 @@
         <v>984</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5047,7 +5020,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5056,13 +5029,13 @@
         <v>984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5050,13 @@
         <v>23489</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
@@ -5092,13 +5065,13 @@
         <v>31742</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -5107,13 +5080,13 @@
         <v>55231</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5101,13 @@
         <v>188144</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -5143,13 +5116,13 @@
         <v>187849</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>357</v>
@@ -5158,13 +5131,13 @@
         <v>375994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,13 +5205,13 @@
         <v>1075</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5262,13 +5235,13 @@
         <v>1075</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,13 +5256,13 @@
         <v>22526</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5298,13 +5271,13 @@
         <v>31547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5313,13 +5286,13 @@
         <v>54073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5307,13 @@
         <v>250379</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>67</v>
       </c>
       <c r="H26" s="7">
         <v>239</v>
@@ -5349,13 +5322,13 @@
         <v>248484</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>477</v>
@@ -5364,13 +5337,13 @@
         <v>498864</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,13 +5411,13 @@
         <v>957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -5453,13 +5426,13 @@
         <v>1931</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>243</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5468,13 +5441,13 @@
         <v>2888</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,13 +5462,13 @@
         <v>57505</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
@@ -5504,13 +5477,13 @@
         <v>73561</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>122</v>
@@ -5519,13 +5492,13 @@
         <v>131066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5513,13 @@
         <v>604326</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H30" s="7">
         <v>566</v>
@@ -5555,13 +5528,13 @@
         <v>618361</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M30" s="7">
         <v>1129</v>
@@ -5570,13 +5543,13 @@
         <v>1222687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,7 +5605,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -5644,13 +5617,13 @@
         <v>1030</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>56</v>
+        <v>325</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5665,7 +5638,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -5674,13 +5647,13 @@
         <v>1030</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5668,13 @@
         <v>54829</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H33" s="7">
         <v>57</v>
@@ -5710,13 +5683,13 @@
         <v>61488</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>230</v>
+        <v>328</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M33" s="7">
         <v>106</v>
@@ -5725,13 +5698,13 @@
         <v>116317</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5719,13 @@
         <v>723239</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>342</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H34" s="7">
         <v>700</v>
@@ -5761,13 +5734,13 @@
         <v>762365</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M34" s="7">
         <v>1367</v>
@@ -5776,13 +5749,13 @@
         <v>1485604</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5823,13 @@
         <v>9107</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -5865,13 +5838,13 @@
         <v>7715</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>204</v>
+        <v>346</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M36" s="7">
         <v>16</v>
@@ -5880,13 +5853,13 @@
         <v>16822</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5874,13 @@
         <v>278078</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H37" s="7">
         <v>338</v>
@@ -5916,13 +5889,13 @@
         <v>363390</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M37" s="7">
         <v>594</v>
@@ -5931,13 +5904,13 @@
         <v>641467</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5925,13 @@
         <v>3139595</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H38" s="7">
         <v>2952</v>
@@ -5967,13 +5940,13 @@
         <v>3187204</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M38" s="7">
         <v>5897</v>
@@ -5982,13 +5955,13 @@
         <v>6326798</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,7 +6017,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6068,7 +6041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C445C4B3-2AFE-41E0-B556-E58B0CB94AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27C9091-BFB7-4726-B346-7EB9ED406D5B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6085,7 +6058,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6213,7 +6186,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6246,10 +6219,10 @@
         <v>370</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -6258,13 +6231,13 @@
         <v>22270</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -6273,13 +6246,13 @@
         <v>44324</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6294,13 +6267,13 @@
         <v>271708</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H6" s="7">
         <v>256</v>
@@ -6309,13 +6282,13 @@
         <v>266433</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M6" s="7">
         <v>501</v>
@@ -6324,13 +6297,13 @@
         <v>538140</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>309</v>
+        <v>380</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,7 +6377,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6413,13 +6386,13 @@
         <v>996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6428,13 +6401,13 @@
         <v>996</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6422,13 @@
         <v>42541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H9" s="7">
         <v>51</v>
@@ -6464,13 +6437,13 @@
         <v>58821</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>231</v>
+        <v>387</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -6479,13 +6452,13 @@
         <v>101362</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,13 +6473,13 @@
         <v>460034</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>432</v>
@@ -6515,13 +6488,13 @@
         <v>463267</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>865</v>
@@ -6530,13 +6503,13 @@
         <v>923301</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6604,13 +6577,13 @@
         <v>736</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6625,7 +6598,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -6634,13 +6607,13 @@
         <v>736</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6628,13 @@
         <v>18323</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -6670,13 +6643,13 @@
         <v>37255</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -6685,13 +6658,13 @@
         <v>55578</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6679,13 @@
         <v>299506</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>415</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -6721,13 +6694,13 @@
         <v>299054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M14" s="7">
         <v>613</v>
@@ -6736,13 +6709,13 @@
         <v>598560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>420</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6783,13 @@
         <v>1804</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6831,7 +6804,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -6843,10 +6816,10 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,13 +6834,13 @@
         <v>46521</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -6876,13 +6849,13 @@
         <v>35447</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -6891,13 +6864,13 @@
         <v>81969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6885,13 @@
         <v>321639</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>436</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>325</v>
@@ -6927,13 +6900,13 @@
         <v>350819</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M18" s="7">
         <v>629</v>
@@ -6942,13 +6915,13 @@
         <v>672458</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +6989,13 @@
         <v>891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7037,7 +7010,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7046,13 +7019,13 @@
         <v>891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7040,13 @@
         <v>14116</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>438</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -7082,13 +7055,13 @@
         <v>20580</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -7097,13 +7070,13 @@
         <v>34697</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7091,13 @@
         <v>196213</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -7133,13 +7106,13 @@
         <v>198007</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="M22" s="7">
         <v>399</v>
@@ -7148,13 +7121,13 @@
         <v>394220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,7 +7201,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>459</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7243,7 +7216,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>460</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7273,13 +7246,13 @@
         <v>18996</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -7288,13 +7261,13 @@
         <v>20666</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -7303,13 +7276,13 @@
         <v>39662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7297,13 @@
         <v>244127</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>245</v>
@@ -7339,13 +7312,13 @@
         <v>252449</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>483</v>
@@ -7354,13 +7327,13 @@
         <v>496576</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,7 +7407,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7479,13 +7452,13 @@
         <v>78948</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>478</v>
+        <v>274</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -7494,13 +7467,13 @@
         <v>76758</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>480</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -7509,13 +7482,13 @@
         <v>155706</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7503,13 @@
         <v>577610</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="H30" s="7">
         <v>582</v>
@@ -7545,13 +7518,13 @@
         <v>614536</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>490</v>
+        <v>170</v>
       </c>
       <c r="M30" s="7">
         <v>1090</v>
@@ -7560,13 +7533,13 @@
         <v>1192146</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,7 +7595,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -7634,13 +7607,13 @@
         <v>1822</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>121</v>
+        <v>483</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -7655,7 +7628,7 @@
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>269</v>
+        <v>484</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -7664,13 +7637,13 @@
         <v>3929</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7658,13 @@
         <v>75446</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>258</v>
+        <v>486</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>495</v>
+        <v>108</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="H33" s="7">
         <v>74</v>
@@ -7700,13 +7673,13 @@
         <v>88292</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="M33" s="7">
         <v>151</v>
@@ -7715,13 +7688,13 @@
         <v>163738</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>316</v>
+        <v>492</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7709,13 @@
         <v>701315</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>504</v>
+        <v>415</v>
       </c>
       <c r="H34" s="7">
         <v>679</v>
@@ -7751,13 +7724,13 @@
         <v>735768</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M34" s="7">
         <v>1350</v>
@@ -7766,13 +7739,13 @@
         <v>1437083</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,10 +7813,10 @@
         <v>5253</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>510</v>
+        <v>349</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>142</v>
@@ -7855,13 +7828,13 @@
         <v>4120</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -7870,13 +7843,13 @@
         <v>9372</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7864,13 @@
         <v>316945</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>320</v>
+        <v>502</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>276</v>
+        <v>503</v>
       </c>
       <c r="H37" s="7">
         <v>312</v>
@@ -7906,13 +7879,13 @@
         <v>360090</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>358</v>
+        <v>506</v>
       </c>
       <c r="M37" s="7">
         <v>629</v>
@@ -7921,13 +7894,13 @@
         <v>677035</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>515</v>
+        <v>327</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7915,13 @@
         <v>3072152</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="H38" s="7">
         <v>3022</v>
@@ -7957,13 +7930,13 @@
         <v>3180332</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>519</v>
+        <v>317</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="M38" s="7">
         <v>5930</v>
@@ -7972,13 +7945,13 @@
         <v>6252485</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>71</v>
+        <v>511</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,7 +8007,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12914F04-03B5-41DE-96FC-5AEB01FE7704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ABF40C-C33A-4038-8C3C-337C104200A0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8075,7 +8048,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8188,7 +8161,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8218,7 +8191,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8239,7 +8212,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8269,7 +8242,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,10 +8257,10 @@
         <v>260298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -8299,10 +8272,10 @@
         <v>271403</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>31</v>
@@ -8314,10 +8287,10 @@
         <v>531700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -8409,7 +8382,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8424,7 +8397,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,7 +8433,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8475,7 +8448,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,10 +8463,10 @@
         <v>519297</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -8505,10 +8478,10 @@
         <v>554566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
@@ -8520,10 +8493,10 @@
         <v>1073864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -8630,7 +8603,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,7 +8654,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8696,10 +8669,10 @@
         <v>322240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
@@ -8711,10 +8684,10 @@
         <v>373284</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>31</v>
@@ -8726,10 +8699,10 @@
         <v>695524</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>31</v>
@@ -8806,7 +8779,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8836,7 +8809,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8857,7 +8830,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -8887,7 +8860,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8902,10 +8875,10 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>31</v>
@@ -8917,10 +8890,10 @@
         <v>428556</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>31</v>
@@ -8932,10 +8905,10 @@
         <v>750796</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>31</v>
@@ -9012,7 +8985,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9027,7 +9000,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -9042,7 +9015,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9063,7 +9036,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -9078,7 +9051,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -9093,7 +9066,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9108,10 +9081,10 @@
         <v>196748</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>31</v>
@@ -9123,10 +9096,10 @@
         <v>259513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>31</v>
@@ -9138,10 +9111,10 @@
         <v>456260</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>31</v>
@@ -9218,7 +9191,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9233,7 +9206,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9248,7 +9221,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9269,7 +9242,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -9284,7 +9257,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -9299,7 +9272,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9314,10 +9287,10 @@
         <v>277223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>31</v>
@@ -9329,10 +9302,10 @@
         <v>275622</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>31</v>
@@ -9344,10 +9317,10 @@
         <v>552845</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>31</v>
@@ -9454,7 +9427,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9505,7 +9478,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9520,10 +9493,10 @@
         <v>627754</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>31</v>
@@ -9535,10 +9508,10 @@
         <v>804203</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
@@ -9550,10 +9523,10 @@
         <v>1431957</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>31</v>
@@ -9612,7 +9585,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5">
         <v>2</v>
@@ -9630,7 +9603,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -9645,7 +9618,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9660,7 +9633,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9681,7 +9654,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -9696,7 +9669,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -9711,7 +9684,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9726,10 +9699,10 @@
         <v>859428</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>31</v>
@@ -9741,10 +9714,10 @@
         <v>868434</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>31</v>
@@ -9756,10 +9729,10 @@
         <v>1727862</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>31</v>
@@ -9836,7 +9809,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -9851,7 +9824,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -9866,7 +9839,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9887,7 +9860,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9902,7 +9875,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -9917,7 +9890,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9932,10 +9905,10 @@
         <v>3385228</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>31</v>
@@ -9947,10 +9920,10 @@
         <v>3835581</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>31</v>
@@ -9962,10 +9935,10 @@
         <v>7220808</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>31</v>
@@ -10024,7 +9997,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 0,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 0,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 0,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 0,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 0,24</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 0,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 0,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,25</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 0,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 0,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 0,31</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,1</t>
+          <t>0,05; 0,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 0,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,13</t>
+          <t>0,08; 0,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 0,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,11</t>
+          <t>0,07; 0,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 0,51</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 0,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 0,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 0,26</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 0,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 0,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 0,34</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 0,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 0,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 0,25</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 0,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 0,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 0,21</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,12</t>
+          <t>0,06; 0,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,12</t>
+          <t>0,05; 0,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,13</t>
+          <t>0,06; 0,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,22</t>
+          <t>0,15; 0,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,06</t>
+          <t>0,03; 0,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,11</t>
+          <t>0,07; 0,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,08</t>
+          <t>0,04; 0,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,34</t>
+          <t>0,22; 0,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,16</t>
+          <t>0,08; 0,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,32</t>
+          <t>0,22; 0,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,15</t>
+          <t>0,1; 0,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,31</t>
+          <t>0,24; 0,31</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,18</t>
+          <t>0,11; 0,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,51</t>
+          <t>0,21; 0,49</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,17</t>
+          <t>0,08; 0,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,27</t>
+          <t>0,15; 0,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,15</t>
+          <t>0,06; 0,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,29</t>
+          <t>0,11; 0,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,19 +1334,19 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,11</t>
+          <t>0,06; 0,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 0,26</t>
+          <t>0,14; 0,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,4</t>
+          <t>0,27; 0,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,33</t>
+          <t>0,22; 0,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,07</t>
+          <t>0,03; 0,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 0,34</t>
+          <t>0,26; 0,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,3</t>
+          <t>0,2; 0,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,24</t>
+          <t>0,09; 0,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,13</t>
+          <t>0,1; 0,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1709,17 +1709,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,1</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,12</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,22</t>
+          <t>0,06; 0,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,09</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,27</t>
+          <t>0,18; 0,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
